--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2802.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2802.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169158437654908</v>
+        <v>0.9272034764289856</v>
       </c>
       <c r="B1">
-        <v>2.440609094068814</v>
+        <v>1.671199917793274</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.467481136322021</v>
       </c>
       <c r="D1">
-        <v>2.365125632391383</v>
+        <v>2.253851652145386</v>
       </c>
       <c r="E1">
-        <v>1.231726965474728</v>
+        <v>0.9190675020217896</v>
       </c>
     </row>
   </sheetData>
